--- a/documents/plan/全体工程表.xlsx
+++ b/documents/plan/全体工程表.xlsx
@@ -3,20 +3,35 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="207" documentId="11_6BA5AE72B34A5608B61DCC78FAA50E2D2B50CC38" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{214B0A49-4566-4DC9-BFE4-6983642FB5BA}"/>
+  <xr:revisionPtr revIDLastSave="964" documentId="11_6BA5AE72B34A5608B61DCC78FAA50E2D2B50CC38" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADADE3F0-65AA-4C93-8A8C-5C3337B8511A}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-2205" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="見積もり" sheetId="2" r:id="rId1"/>
-    <sheet name="全体工程表" sheetId="1" r:id="rId2"/>
+    <sheet name="開発サイクル" sheetId="4" r:id="rId1"/>
+    <sheet name="COMETⅡ概要" sheetId="3" r:id="rId2"/>
+    <sheet name="見積もり" sheetId="2" r:id="rId3"/>
+    <sheet name="全体工程表" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="120">
   <si>
     <t>作 業 名 称</t>
   </si>
@@ -108,30 +123,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(3日間)</t>
-    <rPh sb="2" eb="3">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>アイダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(6日間)</t>
-    <rPh sb="2" eb="4">
-      <t>ニチカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(3日間)</t>
-    <rPh sb="2" eb="4">
-      <t>ニチカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(1日間)</t>
     <rPh sb="2" eb="3">
       <t>ニチ</t>
@@ -213,16 +204,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>想定モジュール数</t>
-    <rPh sb="0" eb="2">
-      <t>ソウテイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>作業内容</t>
     <rPh sb="0" eb="2">
       <t>サギョウ</t>
@@ -246,59 +227,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レビュー、レビュー指摘内容修正</t>
-    <rPh sb="9" eb="11">
-      <t>シテキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大まかな日程作成</t>
-    <rPh sb="0" eb="1">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニッテイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>想定モジュール分割数</t>
-    <rPh sb="0" eb="2">
-      <t>ソウテイ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ブンカツスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モジュール数(個)</t>
-    <rPh sb="5" eb="6">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1モジュールあたりの工数</t>
-    <rPh sb="10" eb="12">
-      <t>コウスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>各工程にかかる日数の算出のために、以下に各作業の作業量の見積もりを記載する。</t>
     <rPh sb="0" eb="1">
       <t>カク</t>
@@ -336,9 +264,1227 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テスト数</t>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工数見積もりのためにCOMETに必要な機能を一覧化する。</t>
+    <rPh sb="0" eb="2">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>イチランカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・実行開始アドレスをPR(プログラムカウンタ)にセットする</t>
+    <rPh sb="1" eb="3">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・仮想メモリの取得(0x0000-0x7FFFまで)</t>
+    <rPh sb="1" eb="3">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・スタック領域の取得(0x7FFFを頭とする)</t>
+    <rPh sb="5" eb="7">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アタマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・実行中のエラー処理</t>
+    <rPh sb="1" eb="4">
+      <t>ジッコウチュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■機能一覧</t>
+    <rPh sb="1" eb="3">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■処理の流れ</t>
+    <rPh sb="1" eb="3">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>疑問点</t>
+    <rPh sb="0" eb="3">
+      <t>ギモンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. コマンドラインからcometコマンドで起動される</t>
+    <rPh sb="22" eb="24">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[cometコマンド実行直後の処理]</t>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チョクゴ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・実行可能ファイルの内容を仮想メモリにマッピングする(fread()を用いる)</t>
+    <rPh sb="1" eb="5">
+      <t>ジッコウカノウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[命令の実行]</t>
+    <rPh sb="1" eb="3">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[命令実行準備]</t>
+    <rPh sb="1" eb="3">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・トレースを出力する</t>
+    <rPh sb="6" eb="8">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[命令実行後の処理]</t>
+    <rPh sb="1" eb="3">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・トレース終了メッセージを出力する</t>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>要求定義書 5.1処理概要 を参考に、想定される</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>自動モード</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の処理の流れを記述する。</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>テイギショ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ショリガイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>07.開発演習導入より引用</t>
+    <rPh sb="3" eb="5">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>エンシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>インヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・開発1(講義08~60)</t>
+    <rPh sb="1" eb="3">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発対象: 下記の制限付きで新規開発を行う</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・自動モードのみ</t>
+    <rPh sb="1" eb="3">
+      <t>ジドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・1オブジェクトファイル、1オブジェクトブロックのみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・命令後: 必須命令(LD(1,2語), ST, ADDA, SLL, EXIT)のみ</t>
+    <rPh sb="1" eb="3">
+      <t>メイレイ</t>
+    </rPh>
     <rPh sb="3" eb="4">
-      <t>スウ</t>
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・開発2(講義61~71)</t>
+    <rPh sb="1" eb="3">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発対象: 開発1に追加実装を行う</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・マニュアルモードを追加</t>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・複数オブジェクトファイル、複数オブジェクトブロックに対応</t>
+    <rPh sb="1" eb="3">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・命令後: 全命令に対応</t>
+    <rPh sb="1" eb="3">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. 引数を確認し、どのようなモードで処理を行うかを確認する</t>
+    <rPh sb="3" eb="5">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. 共有メモリ領域から仮想メモリ(0x0000-0x7FFF)とスタック(0x7FFF-)を取得する(これには共通モジュール"cm_tbad()"を用いる)</t>
+    <rPh sb="3" eb="5">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>モチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4. 引数で指定された実行可能ファイル(バイナリファイル)を仮想メモリにマッピングする</t>
+    <rPh sb="30" eb="32">
+      <t>カソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5. PR(プログラムカウンタ)に実行開始アドレスを指定する</t>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6. 命令を1つずつ逐次実行する</t>
+    <rPh sb="3" eb="5">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チクジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7. 各命令実行後、命令アドレス、オペコード、各レジスタの状態をトレースリストとして標準出力に表示する</t>
+    <rPh sb="3" eb="4">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8. EXIT命令を検出するか、実行中にエラーが発生した場合に処理を終了する</t>
+    <rPh sb="7" eb="9">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ジッコウチュウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9. 終了状態に応じてトレース終了のメッセージを標準出力に出力する</t>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・命令(LD, ST, ADDA, SLL, EXIT)の処理</t>
+    <rPh sb="1" eb="3">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・COMETⅡシミュレータを起動する(main()関数)</t>
+    <rPh sb="14" eb="16">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>想定モジュール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起動パラメータ解読</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・起動パラメータを解読する</t>
+    <rPh sb="1" eb="3">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイドク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮想メモリ(とスタック領域)を取得する</t>
+    <rPh sb="11" eb="13">
+      <t>リョウイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行可能ファイルの内容を仮想メモリにマッピングする
+実行開始アドレスをPRにセットする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LD命令の処理</t>
+    <rPh sb="2" eb="4">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ST命令の処理</t>
+    <rPh sb="2" eb="4">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COMETⅡシミュレータを起動する(main関数)</t>
+    <rPh sb="22" eb="24">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADDA命令の処理</t>
+    <rPh sb="4" eb="6">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SLL命令の処理</t>
+    <rPh sb="3" eb="5">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EXIT命令の処理</t>
+    <rPh sb="4" eb="6">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トレースの出力</t>
+    <rPh sb="5" eb="7">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー発生時の処理</t>
+    <rPh sb="3" eb="5">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要な日数</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要な時間(h)</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計(h)</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4日間)</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アイダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">やること: </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■プロジェクト計画</t>
+    <rPh sb="7" eb="9">
+      <t>ケイカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■基本設計</t>
+    <rPh sb="1" eb="3">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やること:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">アウトプット: </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・モジュール別進捗票</t>
+    <rPh sb="6" eb="7">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ソフトウェア詳細設計書(2.ユニット構造のみ)</t>
+    <rPh sb="7" eb="9">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・各ユニットでどのような処理を行うのか、COMETオブジェクトファイルの読み込みから処理結果を画面表示するまでの処理の流れを処理概要に記述する</t>
+    <rPh sb="1" eb="2">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="62" eb="66">
+      <t>ショリガイヨウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・システムをユニット(モジュール)単位に分割し、ユニット一覧およびユニット構造図を作成する</t>
+    <rPh sb="17" eb="19">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日</t>
+    <rPh sb="0" eb="1">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■詳細設計</t>
+    <rPh sb="1" eb="3">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5日間)</t>
+    <rPh sb="2" eb="4">
+      <t>ニチカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・基本設計で設計した各ユニットについて、ソフトウェア詳細設計書(3.ユニット仕様)に詳細な仕様を記述する</t>
+    <rPh sb="1" eb="3">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・仕様書を見てプログラミングができるレベルまで記述する</t>
+    <rPh sb="1" eb="4">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ユニット間でデータ構造体をやり取りする場合はソフトウェア詳細設計書(4.データ構造)にデータを定義する</t>
+    <rPh sb="5" eb="6">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>コウゾウタイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アウトプット:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ソフトウェア詳細設計書(3.ユニット設計、4.データ構造)</t>
+    <rPh sb="7" eb="11">
+      <t>ショウサイセッケイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境準備</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>makefile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・詳細設計に基づいてプグラミングを行う</t>
+    <rPh sb="1" eb="3">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・makefileを作成する</t>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アウトプット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プログラムソース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・詳細設計書とプログラムソースに基づいてユニットテスト仕様書を作成し、ユニットテストを実施する</t>
+    <rPh sb="1" eb="3">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ソフトウェアユニットテスト仕様書/報告書</t>
+    <rPh sb="14" eb="17">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ホウコクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 作業内容</t>
+    <rPh sb="1" eb="3">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソフトウェアユニットテスト仕様書作成(レビュー、修正含む)</t>
+    <rPh sb="13" eb="16">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニットテスト実施(各モジュールあたり1hの想定)</t>
+    <rPh sb="7" eb="9">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fail部分について修正</t>
+    <rPh sb="4" eb="6">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・提供された結合テスト仕様書に基づいて結合テストを実施する</t>
+    <rPh sb="1" eb="3">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ソフトウェア結合テスト報告書</t>
+    <rPh sb="7" eb="9">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ホウコクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2日間)</t>
+    <rPh sb="2" eb="4">
+      <t>ニチカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結合テスト実施(スクリプト実行のため時間1回あたりの実行に時間はかからない想定)</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・要求定義分析で把握した仕様をどう作るかスケージュールを立てる</t>
+    <rPh sb="1" eb="3">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハアク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COMETⅡ概要</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プロジェクト計画書</t>
+    <rPh sb="7" eb="9">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト計画書作成</t>
+    <rPh sb="6" eb="8">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体工程表作成</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コウテイヒョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -347,7 +1493,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <numFmts count="1">
+    <numFmt numFmtId="187" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -387,6 +1536,26 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -414,7 +1583,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -626,11 +1795,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -739,6 +1925,56 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -822,6 +2058,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1171,133 +2411,253 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0719224-3228-4A7B-9E99-4B321FCA8375}">
-  <dimension ref="B2:C27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6BFA40-CF06-4A27-A597-D010E590D757}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="B2:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="39" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="39"/>
+    <col min="1" max="1" width="2.7109375" style="48" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="48"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="39" t="s">
+    <row r="2" spans="2:2">
+      <c r="B2" s="48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C729523A-3BCB-47E5-BD91-9AD166047A41}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="B2:D35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" style="48" customWidth="1"/>
+    <col min="2" max="2" width="116" style="46" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="39" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="48"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="D3" s="48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="47" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="44" t="s">
+      <c r="D4" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="45" t="s">
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="46" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="41" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" s="46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="41" t="s">
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="44" t="s">
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="46" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-    </row>
-    <row r="13" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-    </row>
-    <row r="17" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="44"/>
-    </row>
-    <row r="19" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-    </row>
-    <row r="21" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B22" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="44"/>
-    </row>
-    <row r="23" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-    </row>
-    <row r="25" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B25" s="40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B26" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="44"/>
-    </row>
-    <row r="27" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
+    <row r="34" spans="2:2">
+      <c r="B34" s="46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="46" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1305,12 +2665,925 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0719224-3228-4A7B-9E99-4B321FCA8375}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="B2:K102"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" style="39" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="39" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="18" style="39" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="39"/>
+    <col min="12" max="16384" width="9.140625" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B2" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="C6" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="C8" s="39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="43">
+        <v>1</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="43">
+        <v>2</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="55"/>
+      <c r="D12" s="62">
+        <f>SUM(D10:D11)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="C16" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="C17" s="39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B18" s="39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="C19" s="39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="C20" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B22" s="43">
+        <v>1</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B23" s="43">
+        <v>2</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B24" s="43">
+        <v>3</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="31.5">
+      <c r="B25" s="43">
+        <v>4</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B26" s="43">
+        <v>5</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B27" s="43">
+        <v>6</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B28" s="43">
+        <v>7</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B29" s="43">
+        <v>8</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B30" s="43">
+        <v>9</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B31" s="43">
+        <v>10</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B32" s="43">
+        <v>11</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B33" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="56"/>
+      <c r="D33" s="62">
+        <f>SUM(D22:D32)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B34" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="63">
+        <f>D33/7</f>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B36" s="40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B37" s="39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="C38" s="39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B39" s="40"/>
+      <c r="C39" s="39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B40" s="40"/>
+      <c r="C40" s="39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B41" s="39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B42" s="40"/>
+      <c r="C42" s="39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B43" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B44" s="43">
+        <v>1</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B45" s="43">
+        <v>2</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B46" s="43">
+        <v>3</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="31.5" customHeight="1">
+      <c r="B47" s="43">
+        <v>4</v>
+      </c>
+      <c r="C47" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B48" s="43">
+        <v>5</v>
+      </c>
+      <c r="C48" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B49" s="43">
+        <v>6</v>
+      </c>
+      <c r="C49" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="19.5" customHeight="1">
+      <c r="B50" s="43">
+        <v>7</v>
+      </c>
+      <c r="C50" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B51" s="43">
+        <v>8</v>
+      </c>
+      <c r="C51" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B52" s="43">
+        <v>9</v>
+      </c>
+      <c r="C52" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B53" s="43">
+        <v>10</v>
+      </c>
+      <c r="C53" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B54" s="43">
+        <v>11</v>
+      </c>
+      <c r="C54" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B55" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="56"/>
+      <c r="D55" s="62">
+        <f>SUM(D44:D54)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B56" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="63">
+        <f>D55/7</f>
+        <v>4</v>
+      </c>
+      <c r="D56" s="52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B57" s="54"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="52"/>
+    </row>
+    <row r="58" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B58" s="40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B59" s="39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="C60" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="C61" s="39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B62" s="39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B63" s="40"/>
+      <c r="C63" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B64" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64" s="45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B65" s="61">
+        <v>1</v>
+      </c>
+      <c r="C65" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" s="61">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B66" s="61">
+        <v>2</v>
+      </c>
+      <c r="C66" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="D66" s="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" s="59" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B67" s="61">
+        <v>3</v>
+      </c>
+      <c r="C67" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="43">
+        <v>1.5</v>
+      </c>
+      <c r="H67" s="60"/>
+      <c r="I67" s="60"/>
+      <c r="J67" s="60"/>
+      <c r="K67" s="60"/>
+    </row>
+    <row r="68" spans="2:11" s="59" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B68" s="61">
+        <v>4</v>
+      </c>
+      <c r="C68" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" s="43">
+        <v>2</v>
+      </c>
+      <c r="H68" s="60"/>
+      <c r="I68" s="60"/>
+      <c r="J68" s="60"/>
+      <c r="K68" s="60"/>
+    </row>
+    <row r="69" spans="2:11" s="59" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B69" s="61">
+        <v>5</v>
+      </c>
+      <c r="C69" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="43">
+        <v>3</v>
+      </c>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="60"/>
+      <c r="K69" s="60"/>
+    </row>
+    <row r="70" spans="2:11" s="59" customFormat="1" ht="37.5" customHeight="1">
+      <c r="B70" s="61">
+        <v>6</v>
+      </c>
+      <c r="C70" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" s="43">
+        <v>3</v>
+      </c>
+      <c r="H70" s="60"/>
+      <c r="I70" s="60"/>
+      <c r="J70" s="60"/>
+      <c r="K70" s="60"/>
+    </row>
+    <row r="71" spans="2:11" s="59" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B71" s="61">
+        <v>7</v>
+      </c>
+      <c r="C71" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" s="43">
+        <v>3</v>
+      </c>
+      <c r="H71" s="60"/>
+      <c r="I71" s="60"/>
+      <c r="J71" s="60"/>
+      <c r="K71" s="60"/>
+    </row>
+    <row r="72" spans="2:11" s="59" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B72" s="61">
+        <v>8</v>
+      </c>
+      <c r="C72" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" s="43">
+        <v>3</v>
+      </c>
+      <c r="H72" s="60"/>
+      <c r="I72" s="60"/>
+      <c r="J72" s="60"/>
+      <c r="K72" s="60"/>
+    </row>
+    <row r="73" spans="2:11" s="59" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B73" s="61">
+        <v>9</v>
+      </c>
+      <c r="C73" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" s="43">
+        <v>3</v>
+      </c>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="60"/>
+      <c r="K73" s="60"/>
+    </row>
+    <row r="74" spans="2:11" s="59" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B74" s="61">
+        <v>10</v>
+      </c>
+      <c r="C74" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74" s="43">
+        <v>3</v>
+      </c>
+      <c r="H74" s="60"/>
+      <c r="I74" s="60"/>
+      <c r="J74" s="60"/>
+      <c r="K74" s="60"/>
+    </row>
+    <row r="75" spans="2:11" s="59" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B75" s="61">
+        <v>11</v>
+      </c>
+      <c r="C75" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" s="43">
+        <v>3</v>
+      </c>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="60"/>
+      <c r="K75" s="60"/>
+    </row>
+    <row r="76" spans="2:11" s="59" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B76" s="61">
+        <v>12</v>
+      </c>
+      <c r="C76" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D76" s="43">
+        <v>3</v>
+      </c>
+      <c r="H76" s="60"/>
+      <c r="I76" s="60"/>
+      <c r="J76" s="60"/>
+      <c r="K76" s="60"/>
+    </row>
+    <row r="77" spans="2:11" s="59" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B77" s="61">
+        <v>13</v>
+      </c>
+      <c r="C77" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D77" s="43">
+        <v>3</v>
+      </c>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="60"/>
+      <c r="K77" s="60"/>
+    </row>
+    <row r="78" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B78" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="56"/>
+      <c r="D78" s="62">
+        <f>SUM(D64:D77)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B79" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" s="63">
+        <f>D78/7</f>
+        <v>4.8571428571428568</v>
+      </c>
+      <c r="D79" s="52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B81" s="40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B82" s="39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B83" s="40"/>
+      <c r="C83" s="39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B84" s="39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B85" s="40"/>
+      <c r="C85" s="39" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B86" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="D86" s="45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B87" s="61">
+        <v>1</v>
+      </c>
+      <c r="C87" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D87" s="43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B88" s="61">
+        <v>2</v>
+      </c>
+      <c r="C88" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="D88" s="43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B89" s="43">
+        <v>3</v>
+      </c>
+      <c r="C89" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D89" s="43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B90" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90" s="55"/>
+      <c r="D90" s="62">
+        <f>SUM(D87:D89)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B91" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C91" s="64">
+        <f>D90/7</f>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="D91" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B93" s="40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B94" s="39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="C95" s="39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B96" s="39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="C97" s="39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B98" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="D98" s="45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B99" s="61">
+        <v>1</v>
+      </c>
+      <c r="C99" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D99" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B100" s="43">
+        <v>2</v>
+      </c>
+      <c r="C100" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D100" s="43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B101" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C101" s="55"/>
+      <c r="D101" s="62">
+        <f>SUM(D99:D100)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B102" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C102" s="64">
+        <f>D101/7</f>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="D102" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
   <dimension ref="A1:AN22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -1545,7 +3818,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="42"/>
-      <c r="D4" s="12"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -1597,7 +3870,7 @@
       <c r="G5" s="34"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="8"/>
+      <c r="J5" s="34"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -1631,7 +3904,7 @@
     </row>
     <row r="6" spans="1:40" ht="24" customHeight="1">
       <c r="A6" s="27" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>4</v>
@@ -1689,11 +3962,11 @@
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="34"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="8"/>
@@ -1723,7 +3996,7 @@
     </row>
     <row r="8" spans="1:40" ht="24" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>4</v>
@@ -1784,15 +4057,15 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="34"/>
       <c r="R9" s="34"/>
       <c r="S9" s="34"/>
       <c r="T9" s="34"/>
-      <c r="U9" s="8"/>
+      <c r="U9" s="34"/>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
@@ -1815,7 +4088,7 @@
     </row>
     <row r="10" spans="1:40" ht="24" customHeight="1">
       <c r="A10" s="27" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>4</v>
@@ -1884,14 +4157,14 @@
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
-      <c r="U11" s="34"/>
+      <c r="U11" s="58"/>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="34"/>
       <c r="Z11" s="34"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
       <c r="AE11" s="8"/>
@@ -1907,7 +4180,7 @@
     </row>
     <row r="12" spans="1:40" ht="24" customHeight="1">
       <c r="A12" s="27" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>4</v>
@@ -1982,12 +4255,12 @@
       <c r="X13" s="9"/>
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
       <c r="AE13" s="34"/>
-      <c r="AF13" s="8"/>
+      <c r="AF13" s="34"/>
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
       <c r="AI13" s="8"/>
@@ -1999,7 +4272,7 @@
     </row>
     <row r="14" spans="1:40" ht="24" customHeight="1">
       <c r="A14" s="27" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>4</v>
@@ -2079,7 +4352,7 @@
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
       <c r="AE15" s="8"/>
-      <c r="AF15" s="34"/>
+      <c r="AF15" s="58"/>
       <c r="AG15" s="34"/>
       <c r="AH15" s="34"/>
       <c r="AI15" s="34"/>
@@ -2091,7 +4364,7 @@
     </row>
     <row r="16" spans="1:40" ht="24" customHeight="1">
       <c r="A16" s="27" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>4</v>
@@ -2183,7 +4456,7 @@
     </row>
     <row r="18" spans="1:40" ht="24" customHeight="1">
       <c r="A18" s="27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>4</v>
@@ -2238,25 +4511,25 @@
       </c>
       <c r="F20" s="35"/>
       <c r="G20" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I20" s="36"/>
       <c r="J20" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L20" s="37"/>
       <c r="M20" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:40">
       <c r="A21" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:40">
       <c r="A22" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/documents/plan/全体工程表.xlsx
+++ b/documents/plan/全体工程表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="964" documentId="11_6BA5AE72B34A5608B61DCC78FAA50E2D2B50CC38" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADADE3F0-65AA-4C93-8A8C-5C3337B8511A}"/>
+  <xr:revisionPtr revIDLastSave="972" documentId="11_6BA5AE72B34A5608B61DCC78FAA50E2D2B50CC38" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A888722-4A03-4BF5-B413-A5FDEE2B8F81}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-2205" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開発サイクル" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="118">
   <si>
     <t>作 業 名 称</t>
   </si>
@@ -268,10 +268,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>工数見積もりのためにCOMETに必要な機能を一覧化する。</t>
     <rPh sb="0" eb="2">
       <t>コウスウ</t>
@@ -350,13 +346,6 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>疑問点</t>
-    <rPh sb="0" eb="3">
-      <t>ギモンテン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -853,13 +842,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>仮想メモリ(とスタック領域)を取得する</t>
-    <rPh sb="11" eb="13">
-      <t>リョウイキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>実行可能ファイルの内容を仮想メモリにマッピングする
 実行開始アドレスをPRにセットする</t>
     <phoneticPr fontId="1"/>
@@ -1486,6 +1468,10 @@
     <rPh sb="5" eb="7">
       <t>サクセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮想メモリを取得する</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1494,7 +1480,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="187" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1816,7 +1802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1936,42 +1922,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2429,57 +2395,57 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="49" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2494,169 +2460,158 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="B2:D35"/>
+  <dimension ref="B2:C35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="48" customWidth="1"/>
     <col min="2" max="2" width="116" style="46" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" style="39" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="48"/>
+    <col min="3" max="16384" width="9.140625" style="48"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:3">
       <c r="B2" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="D3" s="48" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
+        <v>113</v>
+      </c>
+      <c r="C2" s="49"/>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="48" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="46" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" s="46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="46" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="46" t="s">
+    <row r="10" spans="2:3">
+      <c r="B10" s="46" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="46" t="s">
+    <row r="11" spans="2:3">
+      <c r="B11" s="46" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="46" t="s">
+    <row r="12" spans="2:3">
+      <c r="B12" s="46" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="46" t="s">
+    <row r="13" spans="2:3">
+      <c r="B13" s="46" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="46" t="s">
+    <row r="14" spans="2:3">
+      <c r="B14" s="46" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:3">
       <c r="B16" s="47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="46" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="46" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" hidden="1">
+      <c r="B25" s="50" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="50" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2673,7 +2628,7 @@
   <dimension ref="B2:K102"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2693,27 +2648,27 @@
     </row>
     <row r="4" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="40" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="39" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="39" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="39" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="39" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="20.100000000000001" customHeight="1">
@@ -2732,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D10" s="43">
         <v>1</v>
@@ -2743,7 +2698,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D11" s="43">
         <v>1</v>
@@ -2751,47 +2706,47 @@
     </row>
     <row r="12" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="62">
+        <v>77</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="55">
         <f>SUM(D10:D11)</f>
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="40" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="39" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="C16" s="39" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="C17" s="39" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="39" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="C19" s="39" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="20.100000000000001" customHeight="1">
@@ -2799,18 +2754,18 @@
         <v>24</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="43">
         <v>1</v>
       </c>
-      <c r="C22" s="51" t="s">
-        <v>71</v>
+      <c r="C22" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="D22" s="43">
         <v>2</v>
@@ -2820,8 +2775,8 @@
       <c r="B23" s="43">
         <v>2</v>
       </c>
-      <c r="C23" s="51" t="s">
-        <v>65</v>
+      <c r="C23" s="41" t="s">
+        <v>63</v>
       </c>
       <c r="D23" s="43">
         <v>3</v>
@@ -2831,8 +2786,8 @@
       <c r="B24" s="43">
         <v>3</v>
       </c>
-      <c r="C24" s="51" t="s">
-        <v>67</v>
+      <c r="C24" s="41" t="s">
+        <v>117</v>
       </c>
       <c r="D24" s="43">
         <v>3</v>
@@ -2842,8 +2797,8 @@
       <c r="B25" s="43">
         <v>4</v>
       </c>
-      <c r="C25" s="53" t="s">
-        <v>68</v>
+      <c r="C25" s="51" t="s">
+        <v>65</v>
       </c>
       <c r="D25" s="43">
         <v>3</v>
@@ -2853,8 +2808,8 @@
       <c r="B26" s="43">
         <v>5</v>
       </c>
-      <c r="C26" s="51" t="s">
-        <v>69</v>
+      <c r="C26" s="41" t="s">
+        <v>66</v>
       </c>
       <c r="D26" s="43">
         <v>2</v>
@@ -2864,8 +2819,8 @@
       <c r="B27" s="43">
         <v>6</v>
       </c>
-      <c r="C27" s="51" t="s">
-        <v>70</v>
+      <c r="C27" s="41" t="s">
+        <v>67</v>
       </c>
       <c r="D27" s="43">
         <v>2</v>
@@ -2875,8 +2830,8 @@
       <c r="B28" s="43">
         <v>7</v>
       </c>
-      <c r="C28" s="51" t="s">
-        <v>72</v>
+      <c r="C28" s="41" t="s">
+        <v>69</v>
       </c>
       <c r="D28" s="43">
         <v>2</v>
@@ -2886,8 +2841,8 @@
       <c r="B29" s="43">
         <v>8</v>
       </c>
-      <c r="C29" s="51" t="s">
-        <v>73</v>
+      <c r="C29" s="41" t="s">
+        <v>70</v>
       </c>
       <c r="D29" s="43">
         <v>2</v>
@@ -2897,8 +2852,8 @@
       <c r="B30" s="43">
         <v>9</v>
       </c>
-      <c r="C30" s="51" t="s">
-        <v>74</v>
+      <c r="C30" s="41" t="s">
+        <v>71</v>
       </c>
       <c r="D30" s="43">
         <v>2</v>
@@ -2908,8 +2863,8 @@
       <c r="B31" s="43">
         <v>10</v>
       </c>
-      <c r="C31" s="51" t="s">
-        <v>75</v>
+      <c r="C31" s="41" t="s">
+        <v>72</v>
       </c>
       <c r="D31" s="43">
         <v>2</v>
@@ -2919,8 +2874,8 @@
       <c r="B32" s="43">
         <v>11</v>
       </c>
-      <c r="C32" s="51" t="s">
-        <v>76</v>
+      <c r="C32" s="41" t="s">
+        <v>73</v>
       </c>
       <c r="D32" s="43">
         <v>2</v>
@@ -2928,62 +2883,62 @@
     </row>
     <row r="33" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B33" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="62">
+        <v>76</v>
+      </c>
+      <c r="C33" s="53"/>
+      <c r="D33" s="55">
         <f>SUM(D22:D32)</f>
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B34" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="63">
+      <c r="B34" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="56">
         <f>D33/7</f>
         <v>3.5714285714285716</v>
       </c>
-      <c r="D34" s="52" t="s">
-        <v>91</v>
+      <c r="D34" s="39" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="40" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B37" s="39" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="C38" s="39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B39" s="40"/>
       <c r="C39" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B40" s="40"/>
       <c r="C40" s="39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B41" s="39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="19.5" customHeight="1">
       <c r="B42" s="40"/>
       <c r="C42" s="39" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="19.5" customHeight="1">
@@ -2991,18 +2946,18 @@
         <v>24</v>
       </c>
       <c r="C43" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D43" s="45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="19.5" customHeight="1">
       <c r="B44" s="43">
         <v>1</v>
       </c>
-      <c r="C44" s="51" t="s">
-        <v>71</v>
+      <c r="C44" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="D44" s="43">
         <v>1</v>
@@ -3012,8 +2967,8 @@
       <c r="B45" s="43">
         <v>2</v>
       </c>
-      <c r="C45" s="51" t="s">
-        <v>65</v>
+      <c r="C45" s="41" t="s">
+        <v>63</v>
       </c>
       <c r="D45" s="43">
         <v>1</v>
@@ -3023,8 +2978,8 @@
       <c r="B46" s="43">
         <v>3</v>
       </c>
-      <c r="C46" s="51" t="s">
-        <v>67</v>
+      <c r="C46" s="41" t="s">
+        <v>117</v>
       </c>
       <c r="D46" s="43">
         <v>3</v>
@@ -3034,8 +2989,8 @@
       <c r="B47" s="43">
         <v>4</v>
       </c>
-      <c r="C47" s="53" t="s">
-        <v>68</v>
+      <c r="C47" s="51" t="s">
+        <v>65</v>
       </c>
       <c r="D47" s="43">
         <v>3</v>
@@ -3045,8 +3000,8 @@
       <c r="B48" s="43">
         <v>5</v>
       </c>
-      <c r="C48" s="51" t="s">
-        <v>69</v>
+      <c r="C48" s="41" t="s">
+        <v>66</v>
       </c>
       <c r="D48" s="43">
         <v>3</v>
@@ -3056,8 +3011,8 @@
       <c r="B49" s="43">
         <v>6</v>
       </c>
-      <c r="C49" s="51" t="s">
-        <v>70</v>
+      <c r="C49" s="41" t="s">
+        <v>67</v>
       </c>
       <c r="D49" s="43">
         <v>3</v>
@@ -3067,8 +3022,8 @@
       <c r="B50" s="43">
         <v>7</v>
       </c>
-      <c r="C50" s="51" t="s">
-        <v>72</v>
+      <c r="C50" s="41" t="s">
+        <v>69</v>
       </c>
       <c r="D50" s="43">
         <v>3</v>
@@ -3078,8 +3033,8 @@
       <c r="B51" s="43">
         <v>8</v>
       </c>
-      <c r="C51" s="51" t="s">
-        <v>73</v>
+      <c r="C51" s="41" t="s">
+        <v>70</v>
       </c>
       <c r="D51" s="43">
         <v>3</v>
@@ -3089,8 +3044,8 @@
       <c r="B52" s="43">
         <v>9</v>
       </c>
-      <c r="C52" s="51" t="s">
-        <v>74</v>
+      <c r="C52" s="41" t="s">
+        <v>71</v>
       </c>
       <c r="D52" s="43">
         <v>3</v>
@@ -3100,8 +3055,8 @@
       <c r="B53" s="43">
         <v>10</v>
       </c>
-      <c r="C53" s="51" t="s">
-        <v>75</v>
+      <c r="C53" s="41" t="s">
+        <v>72</v>
       </c>
       <c r="D53" s="43">
         <v>3</v>
@@ -3111,8 +3066,8 @@
       <c r="B54" s="43">
         <v>11</v>
       </c>
-      <c r="C54" s="51" t="s">
-        <v>76</v>
+      <c r="C54" s="41" t="s">
+        <v>73</v>
       </c>
       <c r="D54" s="43">
         <v>2</v>
@@ -3120,30 +3075,29 @@
     </row>
     <row r="55" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B55" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="56"/>
-      <c r="D55" s="62">
+        <v>76</v>
+      </c>
+      <c r="C55" s="53"/>
+      <c r="D55" s="55">
         <f>SUM(D44:D54)</f>
         <v>28</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B56" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="63">
+      <c r="B56" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="56">
         <f>D55/7</f>
         <v>4</v>
       </c>
-      <c r="D56" s="52" t="s">
-        <v>91</v>
+      <c r="D56" s="39" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="54"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="52"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="54"/>
     </row>
     <row r="58" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B58" s="40" t="s">
@@ -3152,28 +3106,28 @@
     </row>
     <row r="59" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B59" s="39" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="C60" s="39" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="C61" s="39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B62" s="39" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B63" s="40"/>
       <c r="C63" s="39" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="20.100000000000001" customHeight="1">
@@ -3181,219 +3135,175 @@
         <v>24</v>
       </c>
       <c r="C64" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D64" s="45" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B65" s="61">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B65" s="43">
         <v>1</v>
       </c>
-      <c r="C65" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="D65" s="61">
+      <c r="C65" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D65" s="43">
         <v>1.5</v>
       </c>
     </row>
-    <row r="66" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B66" s="61">
+    <row r="66" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B66" s="43">
         <v>2</v>
       </c>
-      <c r="C66" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="D66" s="61">
+      <c r="C66" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D66" s="43">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:11" s="59" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B67" s="61">
+    <row r="67" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B67" s="43">
         <v>3</v>
       </c>
-      <c r="C67" s="51" t="s">
-        <v>71</v>
+      <c r="C67" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="D67" s="43">
         <v>1.5</v>
       </c>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="60"/>
-      <c r="K67" s="60"/>
-    </row>
-    <row r="68" spans="2:11" s="59" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B68" s="61">
+    </row>
+    <row r="68" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B68" s="43">
         <v>4</v>
       </c>
-      <c r="C68" s="51" t="s">
-        <v>65</v>
+      <c r="C68" s="41" t="s">
+        <v>63</v>
       </c>
       <c r="D68" s="43">
         <v>2</v>
       </c>
-      <c r="H68" s="60"/>
-      <c r="I68" s="60"/>
-      <c r="J68" s="60"/>
-      <c r="K68" s="60"/>
-    </row>
-    <row r="69" spans="2:11" s="59" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B69" s="61">
+    </row>
+    <row r="69" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B69" s="43">
         <v>5</v>
       </c>
-      <c r="C69" s="51" t="s">
-        <v>67</v>
+      <c r="C69" s="41" t="s">
+        <v>117</v>
       </c>
       <c r="D69" s="43">
         <v>3</v>
       </c>
-      <c r="H69" s="60"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="60"/>
-      <c r="K69" s="60"/>
-    </row>
-    <row r="70" spans="2:11" s="59" customFormat="1" ht="37.5" customHeight="1">
-      <c r="B70" s="61">
+    </row>
+    <row r="70" spans="2:4" ht="37.5" customHeight="1">
+      <c r="B70" s="43">
         <v>6</v>
       </c>
-      <c r="C70" s="53" t="s">
-        <v>68</v>
+      <c r="C70" s="51" t="s">
+        <v>65</v>
       </c>
       <c r="D70" s="43">
         <v>3</v>
       </c>
-      <c r="H70" s="60"/>
-      <c r="I70" s="60"/>
-      <c r="J70" s="60"/>
-      <c r="K70" s="60"/>
-    </row>
-    <row r="71" spans="2:11" s="59" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B71" s="61">
+    </row>
+    <row r="71" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B71" s="43">
         <v>7</v>
       </c>
-      <c r="C71" s="51" t="s">
-        <v>69</v>
+      <c r="C71" s="41" t="s">
+        <v>66</v>
       </c>
       <c r="D71" s="43">
         <v>3</v>
       </c>
-      <c r="H71" s="60"/>
-      <c r="I71" s="60"/>
-      <c r="J71" s="60"/>
-      <c r="K71" s="60"/>
-    </row>
-    <row r="72" spans="2:11" s="59" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B72" s="61">
+    </row>
+    <row r="72" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B72" s="43">
         <v>8</v>
       </c>
-      <c r="C72" s="51" t="s">
-        <v>70</v>
+      <c r="C72" s="41" t="s">
+        <v>67</v>
       </c>
       <c r="D72" s="43">
         <v>3</v>
       </c>
-      <c r="H72" s="60"/>
-      <c r="I72" s="60"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="60"/>
-    </row>
-    <row r="73" spans="2:11" s="59" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B73" s="61">
+    </row>
+    <row r="73" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B73" s="43">
         <v>9</v>
       </c>
-      <c r="C73" s="51" t="s">
-        <v>72</v>
+      <c r="C73" s="41" t="s">
+        <v>69</v>
       </c>
       <c r="D73" s="43">
         <v>3</v>
       </c>
-      <c r="H73" s="60"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="60"/>
-      <c r="K73" s="60"/>
-    </row>
-    <row r="74" spans="2:11" s="59" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B74" s="61">
+    </row>
+    <row r="74" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B74" s="43">
         <v>10</v>
       </c>
-      <c r="C74" s="51" t="s">
-        <v>73</v>
+      <c r="C74" s="41" t="s">
+        <v>70</v>
       </c>
       <c r="D74" s="43">
         <v>3</v>
       </c>
-      <c r="H74" s="60"/>
-      <c r="I74" s="60"/>
-      <c r="J74" s="60"/>
-      <c r="K74" s="60"/>
-    </row>
-    <row r="75" spans="2:11" s="59" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B75" s="61">
+    </row>
+    <row r="75" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B75" s="43">
         <v>11</v>
       </c>
-      <c r="C75" s="51" t="s">
-        <v>74</v>
+      <c r="C75" s="41" t="s">
+        <v>71</v>
       </c>
       <c r="D75" s="43">
         <v>3</v>
       </c>
-      <c r="H75" s="60"/>
-      <c r="I75" s="60"/>
-      <c r="J75" s="60"/>
-      <c r="K75" s="60"/>
-    </row>
-    <row r="76" spans="2:11" s="59" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B76" s="61">
+    </row>
+    <row r="76" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B76" s="43">
         <v>12</v>
       </c>
-      <c r="C76" s="51" t="s">
-        <v>75</v>
+      <c r="C76" s="41" t="s">
+        <v>72</v>
       </c>
       <c r="D76" s="43">
         <v>3</v>
       </c>
-      <c r="H76" s="60"/>
-      <c r="I76" s="60"/>
-      <c r="J76" s="60"/>
-      <c r="K76" s="60"/>
-    </row>
-    <row r="77" spans="2:11" s="59" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B77" s="61">
+    </row>
+    <row r="77" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B77" s="43">
         <v>13</v>
       </c>
-      <c r="C77" s="51" t="s">
-        <v>76</v>
+      <c r="C77" s="41" t="s">
+        <v>73</v>
       </c>
       <c r="D77" s="43">
         <v>3</v>
       </c>
-      <c r="H77" s="60"/>
-      <c r="I77" s="60"/>
-      <c r="J77" s="60"/>
-      <c r="K77" s="60"/>
-    </row>
-    <row r="78" spans="2:11" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="78" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B78" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C78" s="56"/>
-      <c r="D78" s="62">
+        <v>76</v>
+      </c>
+      <c r="C78" s="53"/>
+      <c r="D78" s="55">
         <f>SUM(D64:D77)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B79" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="C79" s="63">
+    <row r="79" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B79" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" s="56">
         <f>D78/7</f>
         <v>4.8571428571428568</v>
       </c>
-      <c r="D79" s="52" t="s">
-        <v>91</v>
+      <c r="D79" s="39" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="2:4" ht="20.100000000000001" customHeight="1">
@@ -3403,24 +3313,24 @@
     </row>
     <row r="82" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B82" s="39" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B83" s="40"/>
       <c r="C83" s="39" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B84" s="39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B85" s="40"/>
       <c r="C85" s="39" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="2:4" ht="20.100000000000001" customHeight="1">
@@ -3428,29 +3338,29 @@
         <v>24</v>
       </c>
       <c r="C86" s="44" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D86" s="45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B87" s="61">
+      <c r="B87" s="43">
         <v>1</v>
       </c>
-      <c r="C87" s="51" t="s">
-        <v>108</v>
+      <c r="C87" s="41" t="s">
+        <v>105</v>
       </c>
       <c r="D87" s="43">
         <v>7</v>
       </c>
     </row>
     <row r="88" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B88" s="61">
+      <c r="B88" s="43">
         <v>2</v>
       </c>
-      <c r="C88" s="51" t="s">
-        <v>109</v>
+      <c r="C88" s="41" t="s">
+        <v>106</v>
       </c>
       <c r="D88" s="43">
         <v>11</v>
@@ -3461,7 +3371,7 @@
         <v>3</v>
       </c>
       <c r="C89" s="41" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D89" s="43">
         <v>7</v>
@@ -3469,24 +3379,24 @@
     </row>
     <row r="90" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B90" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C90" s="55"/>
-      <c r="D90" s="62">
+        <v>76</v>
+      </c>
+      <c r="C90" s="53"/>
+      <c r="D90" s="55">
         <f>SUM(D87:D89)</f>
         <v>25</v>
       </c>
     </row>
     <row r="91" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B91" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="C91" s="64">
+      <c r="B91" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C91" s="56">
         <f>D90/7</f>
         <v>3.5714285714285716</v>
       </c>
-      <c r="D91" s="54" t="s">
-        <v>91</v>
+      <c r="D91" s="52" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="2:4" ht="20.100000000000001" customHeight="1">
@@ -3496,22 +3406,22 @@
     </row>
     <row r="94" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B94" s="39" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="C95" s="39" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B96" s="39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="C97" s="39" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="2:4" ht="20.100000000000001" customHeight="1">
@@ -3519,18 +3429,18 @@
         <v>24</v>
       </c>
       <c r="C98" s="44" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D98" s="45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B99" s="61">
+      <c r="B99" s="43">
         <v>1</v>
       </c>
-      <c r="C99" s="51" t="s">
-        <v>114</v>
+      <c r="C99" s="41" t="s">
+        <v>111</v>
       </c>
       <c r="D99" s="43">
         <v>2</v>
@@ -3541,7 +3451,7 @@
         <v>2</v>
       </c>
       <c r="C100" s="41" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D100" s="43">
         <v>7</v>
@@ -3549,24 +3459,24 @@
     </row>
     <row r="101" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B101" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C101" s="55"/>
-      <c r="D101" s="62">
+        <v>76</v>
+      </c>
+      <c r="C101" s="53"/>
+      <c r="D101" s="55">
         <f>SUM(D99:D100)</f>
         <v>9</v>
       </c>
     </row>
     <row r="102" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B102" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="C102" s="64">
+      <c r="B102" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C102" s="56">
         <f>D101/7</f>
         <v>1.2857142857142858</v>
       </c>
-      <c r="D102" s="54" t="s">
-        <v>91</v>
+      <c r="D102" s="52" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3582,8 +3492,8 @@
   </sheetPr>
   <dimension ref="A1:AN22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -3818,7 +3728,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="42"/>
-      <c r="D4" s="65"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -3904,7 +3814,7 @@
     </row>
     <row r="6" spans="1:40" ht="24" customHeight="1">
       <c r="A6" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>4</v>
@@ -3962,7 +3872,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="58"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
       <c r="M7" s="34"/>
@@ -3996,7 +3906,7 @@
     </row>
     <row r="8" spans="1:40" ht="24" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>4</v>
@@ -4057,8 +3967,8 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="34"/>
@@ -4088,7 +3998,7 @@
     </row>
     <row r="10" spans="1:40" ht="24" customHeight="1">
       <c r="A10" s="27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>4</v>
@@ -4157,7 +4067,7 @@
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
-      <c r="U11" s="58"/>
+      <c r="U11" s="8"/>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
@@ -4180,7 +4090,7 @@
     </row>
     <row r="12" spans="1:40" ht="24" customHeight="1">
       <c r="A12" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>4</v>
@@ -4255,8 +4165,8 @@
       <c r="X13" s="9"/>
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
       <c r="AE13" s="34"/>
@@ -4272,7 +4182,7 @@
     </row>
     <row r="14" spans="1:40" ht="24" customHeight="1">
       <c r="A14" s="27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>4</v>
@@ -4352,7 +4262,7 @@
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
       <c r="AE15" s="8"/>
-      <c r="AF15" s="58"/>
+      <c r="AF15" s="8"/>
       <c r="AG15" s="34"/>
       <c r="AH15" s="34"/>
       <c r="AI15" s="34"/>
@@ -4364,7 +4274,7 @@
     </row>
     <row r="16" spans="1:40" ht="24" customHeight="1">
       <c r="A16" s="27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>4</v>

--- a/documents/plan/全体工程表.xlsx
+++ b/documents/plan/全体工程表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="972" documentId="11_6BA5AE72B34A5608B61DCC78FAA50E2D2B50CC38" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A888722-4A03-4BF5-B413-A5FDEE2B8F81}"/>
+  <xr:revisionPtr revIDLastSave="975" documentId="11_6BA5AE72B34A5608B61DCC78FAA50E2D2B50CC38" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68904E22-0B9D-45EC-92A0-A03F2105D09F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開発サイクル" sheetId="4" r:id="rId1"/>
@@ -627,25 +627,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・命令後: 全命令に対応</t>
-    <rPh sb="1" eb="3">
-      <t>メイレイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>メイレイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2. 引数を確認し、どのようなモードで処理を行うかを確認する</t>
     <rPh sb="3" eb="5">
       <t>ヒキスウ</t>
@@ -1472,6 +1453,25 @@
   </si>
   <si>
     <t>仮想メモリを取得する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・命令語: 全命令に対応</t>
+    <rPh sb="1" eb="3">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイオウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2383,8 +2383,8 @@
   </sheetPr>
   <dimension ref="B2:B14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="48" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2463,7 +2463,7 @@
   <dimension ref="B2:C35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2475,7 +2475,7 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" s="47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="49"/>
     </row>
@@ -2496,42 +2496,42 @@
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:3">
@@ -2551,12 +2551,12 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="2:2">
@@ -2591,7 +2591,7 @@
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="2:2">
@@ -2628,7 +2628,7 @@
   <dimension ref="B2:K102"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2648,27 +2648,27 @@
     </row>
     <row r="4" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="20.100000000000001" customHeight="1">
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" s="43">
         <v>1</v>
@@ -2698,7 +2698,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="43">
         <v>1</v>
@@ -2706,7 +2706,7 @@
     </row>
     <row r="12" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="55">
@@ -2716,37 +2716,37 @@
     </row>
     <row r="14" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="C16" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="C17" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="C19" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="20.100000000000001" customHeight="1">
@@ -2754,10 +2754,10 @@
         <v>24</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="20.100000000000001" customHeight="1">
@@ -2765,7 +2765,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="43">
         <v>2</v>
@@ -2776,7 +2776,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="43">
         <v>3</v>
@@ -2787,7 +2787,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" s="43">
         <v>3</v>
@@ -2798,7 +2798,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D25" s="43">
         <v>3</v>
@@ -2809,7 +2809,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="43">
         <v>2</v>
@@ -2820,7 +2820,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" s="43">
         <v>2</v>
@@ -2831,7 +2831,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="43">
         <v>2</v>
@@ -2842,7 +2842,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" s="43">
         <v>2</v>
@@ -2853,7 +2853,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D30" s="43">
         <v>2</v>
@@ -2864,7 +2864,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31" s="43">
         <v>2</v>
@@ -2875,7 +2875,7 @@
         <v>11</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D32" s="43">
         <v>2</v>
@@ -2883,7 +2883,7 @@
     </row>
     <row r="33" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B33" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" s="53"/>
       <c r="D33" s="55">
@@ -2893,52 +2893,52 @@
     </row>
     <row r="34" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B34" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="56">
         <f>D33/7</f>
         <v>3.5714285714285716</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B37" s="39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="C38" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B39" s="40"/>
       <c r="C39" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B40" s="40"/>
       <c r="C40" s="39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B41" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="19.5" customHeight="1">
       <c r="B42" s="40"/>
       <c r="C42" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="19.5" customHeight="1">
@@ -2946,10 +2946,10 @@
         <v>24</v>
       </c>
       <c r="C43" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D43" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="19.5" customHeight="1">
@@ -2957,7 +2957,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D44" s="43">
         <v>1</v>
@@ -2968,7 +2968,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D45" s="43">
         <v>1</v>
@@ -2979,7 +2979,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D46" s="43">
         <v>3</v>
@@ -2990,7 +2990,7 @@
         <v>4</v>
       </c>
       <c r="C47" s="51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D47" s="43">
         <v>3</v>
@@ -3001,7 +3001,7 @@
         <v>5</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D48" s="43">
         <v>3</v>
@@ -3012,7 +3012,7 @@
         <v>6</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D49" s="43">
         <v>3</v>
@@ -3023,7 +3023,7 @@
         <v>7</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D50" s="43">
         <v>3</v>
@@ -3034,7 +3034,7 @@
         <v>8</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D51" s="43">
         <v>3</v>
@@ -3045,7 +3045,7 @@
         <v>9</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D52" s="43">
         <v>3</v>
@@ -3056,7 +3056,7 @@
         <v>10</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D53" s="43">
         <v>3</v>
@@ -3067,7 +3067,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D54" s="43">
         <v>2</v>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="55" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B55" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" s="53"/>
       <c r="D55" s="55">
@@ -3085,14 +3085,14 @@
     </row>
     <row r="56" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B56" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C56" s="56">
         <f>D55/7</f>
         <v>4</v>
       </c>
       <c r="D56" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="20.100000000000001" customHeight="1">
@@ -3106,28 +3106,28 @@
     </row>
     <row r="59" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B59" s="39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="C60" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="C61" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B62" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B63" s="40"/>
       <c r="C63" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="20.100000000000001" customHeight="1">
@@ -3135,10 +3135,10 @@
         <v>24</v>
       </c>
       <c r="C64" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D64" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="20.100000000000001" customHeight="1">
@@ -3146,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D65" s="43">
         <v>1.5</v>
@@ -3157,7 +3157,7 @@
         <v>2</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D66" s="43">
         <v>2</v>
@@ -3168,7 +3168,7 @@
         <v>3</v>
       </c>
       <c r="C67" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D67" s="43">
         <v>1.5</v>
@@ -3179,7 +3179,7 @@
         <v>4</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D68" s="43">
         <v>2</v>
@@ -3190,7 +3190,7 @@
         <v>5</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D69" s="43">
         <v>3</v>
@@ -3201,7 +3201,7 @@
         <v>6</v>
       </c>
       <c r="C70" s="51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D70" s="43">
         <v>3</v>
@@ -3212,7 +3212,7 @@
         <v>7</v>
       </c>
       <c r="C71" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D71" s="43">
         <v>3</v>
@@ -3223,7 +3223,7 @@
         <v>8</v>
       </c>
       <c r="C72" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D72" s="43">
         <v>3</v>
@@ -3234,7 +3234,7 @@
         <v>9</v>
       </c>
       <c r="C73" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D73" s="43">
         <v>3</v>
@@ -3245,7 +3245,7 @@
         <v>10</v>
       </c>
       <c r="C74" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D74" s="43">
         <v>3</v>
@@ -3256,7 +3256,7 @@
         <v>11</v>
       </c>
       <c r="C75" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D75" s="43">
         <v>3</v>
@@ -3267,7 +3267,7 @@
         <v>12</v>
       </c>
       <c r="C76" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D76" s="43">
         <v>3</v>
@@ -3278,7 +3278,7 @@
         <v>13</v>
       </c>
       <c r="C77" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D77" s="43">
         <v>3</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="78" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B78" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78" s="53"/>
       <c r="D78" s="55">
@@ -3296,14 +3296,14 @@
     </row>
     <row r="79" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B79" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C79" s="56">
         <f>D78/7</f>
         <v>4.8571428571428568</v>
       </c>
       <c r="D79" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="2:4" ht="20.100000000000001" customHeight="1">
@@ -3313,24 +3313,24 @@
     </row>
     <row r="82" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B82" s="39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B83" s="40"/>
       <c r="C83" s="39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B84" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B85" s="40"/>
       <c r="C85" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="2:4" ht="20.100000000000001" customHeight="1">
@@ -3338,10 +3338,10 @@
         <v>24</v>
       </c>
       <c r="C86" s="44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D86" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="2:4" ht="20.100000000000001" customHeight="1">
@@ -3349,7 +3349,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D87" s="43">
         <v>7</v>
@@ -3360,7 +3360,7 @@
         <v>2</v>
       </c>
       <c r="C88" s="41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D88" s="43">
         <v>11</v>
@@ -3371,7 +3371,7 @@
         <v>3</v>
       </c>
       <c r="C89" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D89" s="43">
         <v>7</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="90" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B90" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C90" s="53"/>
       <c r="D90" s="55">
@@ -3389,14 +3389,14 @@
     </row>
     <row r="91" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B91" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C91" s="56">
         <f>D90/7</f>
         <v>3.5714285714285716</v>
       </c>
       <c r="D91" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="2:4" ht="20.100000000000001" customHeight="1">
@@ -3406,22 +3406,22 @@
     </row>
     <row r="94" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B94" s="39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="C95" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B96" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="C97" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="2:4" ht="20.100000000000001" customHeight="1">
@@ -3429,10 +3429,10 @@
         <v>24</v>
       </c>
       <c r="C98" s="44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D98" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="2:4" ht="20.100000000000001" customHeight="1">
@@ -3440,7 +3440,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D99" s="43">
         <v>2</v>
@@ -3451,7 +3451,7 @@
         <v>2</v>
       </c>
       <c r="C100" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D100" s="43">
         <v>7</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="101" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B101" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C101" s="53"/>
       <c r="D101" s="55">
@@ -3469,14 +3469,14 @@
     </row>
     <row r="102" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B102" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C102" s="56">
         <f>D101/7</f>
         <v>1.2857142857142858</v>
       </c>
       <c r="D102" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3492,8 +3492,8 @@
   </sheetPr>
   <dimension ref="A1:AN22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -3814,15 +3814,15 @@
     </row>
     <row r="6" spans="1:40" ht="24" customHeight="1">
       <c r="A6" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="12"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="8" spans="1:40" ht="24" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>4</v>
@@ -3998,7 +3998,7 @@
     </row>
     <row r="10" spans="1:40" ht="24" customHeight="1">
       <c r="A10" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>4</v>
@@ -4090,7 +4090,7 @@
     </row>
     <row r="12" spans="1:40" ht="24" customHeight="1">
       <c r="A12" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>4</v>
@@ -4182,7 +4182,7 @@
     </row>
     <row r="14" spans="1:40" ht="24" customHeight="1">
       <c r="A14" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>4</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="16" spans="1:40" ht="24" customHeight="1">
       <c r="A16" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>4</v>
